--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_brokerage_investment_banking.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.423</v>
+        <v>0.423</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>-6.14</v>
+        <v>1.26</v>
       </c>
       <c r="L2">
-        <v>-1.729577464788732</v>
+        <v>0.1305699481865285</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,70 +618,70 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>39.2</v>
+      </c>
+      <c r="V2">
+        <v>0.9053117782909932</v>
+      </c>
+      <c r="W2">
+        <v>0.02709677419354839</v>
+      </c>
+      <c r="X2">
+        <v>0.03130610771243929</v>
+      </c>
+      <c r="Y2">
+        <v>-0.004209333518890902</v>
+      </c>
+      <c r="Z2">
+        <v>-1.66092943201377</v>
+      </c>
+      <c r="AA2">
         <v>-0</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>-0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>46.8</v>
-      </c>
-      <c r="V2">
-        <v>0.4952380952380952</v>
-      </c>
-      <c r="W2">
-        <v>-0.04508076358296623</v>
-      </c>
-      <c r="X2">
-        <v>0.0532100180218435</v>
-      </c>
-      <c r="Y2">
-        <v>-0.09829078160480972</v>
-      </c>
-      <c r="Z2">
-        <v>0.0166815469197876</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
-        <v>0.03778068742254907</v>
+        <v>0.03080994059358636</v>
       </c>
       <c r="AC2">
-        <v>-0.03778068742254907</v>
+        <v>-0.03080994059358636</v>
       </c>
       <c r="AD2">
-        <v>77.5</v>
+        <v>1.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>77.5</v>
+        <v>1.4</v>
       </c>
       <c r="AG2">
-        <v>30.7</v>
+        <v>-37.8</v>
       </c>
       <c r="AH2">
-        <v>0.4505813953488372</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="AI2">
-        <v>0.3734939759036144</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="AJ2">
-        <v>0.2452076677316294</v>
+        <v>-6.872727272727283</v>
       </c>
       <c r="AK2">
-        <v>0.1910392034847542</v>
+        <v>-3.780000000000003</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al Ramz Corporation Investment and Development P.J.S.C. (DFM:ALRAMZ)</t>
+          <t>BH Mubasher Financial Services P.S.C (DFM:BHMUBASHER)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.423</v>
+        <v>0.423</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-6.14</v>
+        <v>1.26</v>
       </c>
       <c r="L3">
-        <v>-1.729577464788732</v>
+        <v>0.1305699481865285</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -734,7 +734,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -743,61 +743,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>46.8</v>
+        <v>39.2</v>
       </c>
       <c r="V3">
-        <v>0.4952380952380952</v>
+        <v>0.9053117782909932</v>
       </c>
       <c r="W3">
-        <v>-0.04508076358296623</v>
+        <v>0.02709677419354839</v>
       </c>
       <c r="X3">
-        <v>0.0532100180218435</v>
+        <v>0.03130610771243929</v>
       </c>
       <c r="Y3">
-        <v>-0.09829078160480972</v>
+        <v>-0.004209333518890902</v>
       </c>
       <c r="Z3">
-        <v>0.0166815469197876</v>
+        <v>-1.66092943201377</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.03778068742254907</v>
+        <v>0.03080994059358636</v>
       </c>
       <c r="AC3">
-        <v>-0.03778068742254907</v>
+        <v>-0.03080994059358636</v>
       </c>
       <c r="AD3">
-        <v>77.5</v>
+        <v>1.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>77.5</v>
+        <v>1.4</v>
       </c>
       <c r="AG3">
-        <v>30.7</v>
+        <v>-37.8</v>
       </c>
       <c r="AH3">
-        <v>0.4505813953488372</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="AI3">
-        <v>0.3734939759036144</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="AJ3">
-        <v>0.2452076677316294</v>
+        <v>-6.872727272727283</v>
       </c>
       <c r="AK3">
-        <v>0.1910392034847542</v>
+        <v>-3.780000000000003</v>
       </c>
       <c r="AL3">
         <v>0</v>
